--- a/stocklist.xlsx
+++ b/stocklist.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew\Desktop\Stocks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew\Desktop\STKAlgo\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20112" windowHeight="9384"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20115" windowHeight="9390"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="1">
   <si>
     <t>MSFT</t>
   </si>
@@ -344,16 +344,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>

--- a/stocklist.xlsx
+++ b/stocklist.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="1">
   <si>
     <t>MSFT</t>
   </si>
@@ -344,10 +344,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -362,6 +362,11 @@
         <v>0</v>
       </c>
     </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
